--- a/components/mockup-data/data/presentation.xlsx
+++ b/components/mockup-data/data/presentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Học kì VII\Web\Kahoot\BE\components\mockup-data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28106B50-5096-40B3-A49F-F6DE24118614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00C1565-48AD-4FDB-92A3-A3D11E8684DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2976" yWindow="1728" windowWidth="19224" windowHeight="10056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>name</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Simple Presentation</t>
   </si>
   <si>
-    <t>Presentation1</t>
-  </si>
-  <si>
     <t>Presentation Kahoot</t>
   </si>
   <si>
@@ -55,6 +52,15 @@
   </si>
   <si>
     <t>SuperVipPro</t>
+  </si>
+  <si>
+    <t>Presentation of Sang</t>
+  </si>
+  <si>
+    <t>Presentation Temp</t>
+  </si>
+  <si>
+    <t>Presentation of Hieu</t>
   </si>
 </sst>
 </file>
@@ -372,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,7 +436,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>453671</v>
@@ -444,7 +450,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>123648</v>
@@ -458,7 +464,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>156442</v>
@@ -472,7 +478,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>123694</v>
@@ -482,6 +488,34 @@
       </c>
       <c r="D7">
         <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>569234</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>485123</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
